--- a/assignment2/Evaluation result.xlsx
+++ b/assignment2/Evaluation result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t xml:space="preserve">MNIST Evaluation Report</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20 minutes</t>
+    <t xml:space="preserve">8.19 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Setting #2</t>
@@ -85,22 +85,19 @@
     <t xml:space="preserve">Adam</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99 minutes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Setting #3</t>
   </si>
   <si>
     <t xml:space="preserve">O(lambda=0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09 minutes</t>
+    <t xml:space="preserve"> 8.15 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Setting #4</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71 minutes</t>
+    <t xml:space="preserve">8.73 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Validation dataset accuracy plot</t>
@@ -122,6 +119,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">결과 정리</t>
     </r>
@@ -133,18 +131,57 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">] Training completes in approximately 10 epochs or less. There is no significant difference between the required settings.</t>
+      <t xml:space="preserve">] A slight decrease in validation/test accuracy was observed when weight decay was applied, which may be a result of lambda being too large (Note the effect of reducing lambda by a factor of 10 to 0.001 in Fig. 5; validation accuracy increases to 98.15%)
+Although Setting 1 gave the best final results, it was the most prone to getting stuck in local minima (validation accuracy &lt;90%), as illustrated in Fig. 1 below.
+The model was also in one instance observed to escape local minima (Setting 4), as shown in Fig. 2, although it did not always manage to do so (i.e. validation accuracy &lt;90%, Fig. 3).
+Such results indicate the effectiveness or the importance of training multiple instances of the same model with different initial states.
+Also note the performance of linear systems as a baseline (i.e. </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">without ReLU; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">approximately 92% test accuracy in just 5 or so epochs) in Fig. 4. Accuracy was also noted to decrease with weight decay of 0.01.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,6 +224,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
     <font>
@@ -344,7 +388,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,7 +400,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +417,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -453,15 +497,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>963000</xdr:colOff>
+      <xdr:colOff>962640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -470,20 +514,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2001960" y="1864800"/>
-          <a:ext cx="1695240" cy="239400"/>
+          <a:off x="2003040" y="1865520"/>
+          <a:ext cx="1694520" cy="239040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -526,13 +568,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>524520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>730800</xdr:colOff>
+      <xdr:colOff>731160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -541,20 +583,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5815080" y="1864800"/>
-          <a:ext cx="1896120" cy="239400"/>
+          <a:off x="5815800" y="1865520"/>
+          <a:ext cx="1897560" cy="239040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -597,13 +637,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>242640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>863640</xdr:colOff>
+      <xdr:colOff>864000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -612,20 +652,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9834840" y="1864800"/>
-          <a:ext cx="1721520" cy="239400"/>
+          <a:off x="9837360" y="1865520"/>
+          <a:ext cx="1722240" cy="239040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -666,15 +704,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1393920</xdr:colOff>
+      <xdr:colOff>1394640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1186560</xdr:colOff>
+      <xdr:colOff>1186200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -683,20 +721,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13509720" y="1864800"/>
-          <a:ext cx="1860120" cy="239400"/>
+          <a:off x="13513320" y="1865520"/>
+          <a:ext cx="1859400" cy="239040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -737,15 +773,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>532440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -758,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1298520" y="2248200"/>
-          <a:ext cx="3272760" cy="2454480"/>
+          <a:off x="1299960" y="2248920"/>
+          <a:ext cx="3271680" cy="2454120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,15 +810,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
+      <xdr:colOff>626760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>235440</xdr:rowOff>
+      <xdr:rowOff>236160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1152720</xdr:colOff>
+      <xdr:colOff>1153080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -795,8 +831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4993920" y="2298240"/>
-          <a:ext cx="3139200" cy="2354400"/>
+          <a:off x="4994640" y="2298960"/>
+          <a:ext cx="3140640" cy="2354040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,13 +849,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>335520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>219240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,8 +868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105480" y="2281320"/>
-          <a:ext cx="3166560" cy="2374920"/>
+          <a:off x="9108000" y="2282040"/>
+          <a:ext cx="3166560" cy="2374560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,15 +884,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>835920</xdr:colOff>
+      <xdr:colOff>836640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>226440</xdr:rowOff>
+      <xdr:rowOff>227160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>345240</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>270000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,8 +905,580 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12951720" y="2289240"/>
-          <a:ext cx="3410640" cy="2557800"/>
+          <a:off x="12955320" y="2289960"/>
+          <a:ext cx="3409920" cy="2557440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1526760</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="411840" y="6676920"/>
+          <a:ext cx="3849840" cy="2887560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1652760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9783360" y="6652440"/>
+          <a:ext cx="3988080" cy="2991240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>430920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810320" y="6668640"/>
+          <a:ext cx="4393080" cy="3294720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2003400" y="11249640"/>
+          <a:ext cx="1694160" cy="137520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Setting #1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524520</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5815800" y="11249640"/>
+          <a:ext cx="1897920" cy="137520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Setting #2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>864360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9837360" y="11249640"/>
+          <a:ext cx="1722600" cy="137520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Setting #3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1395000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1186200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13513680" y="11249640"/>
+          <a:ext cx="1859040" cy="137520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Setting #4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-SG" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895320" y="11579400"/>
+          <a:ext cx="3916800" cy="2891520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627120</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99720</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4995000" y="11488320"/>
+          <a:ext cx="3877200" cy="3158640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335520</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>845640</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9108000" y="11489400"/>
+          <a:ext cx="3856320" cy="3058560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1034280</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>865800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13152960" y="11515320"/>
+          <a:ext cx="3732480" cy="3081600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>198000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 8" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="767880" y="15680160"/>
+          <a:ext cx="5851800" cy="4388760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,20 +1498,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:N24"/>
+  <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.38"/>
@@ -911,7 +1519,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1006,10 +1614,10 @@
         <v>18</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>92.73</v>
+        <v>0.9804</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,18 +1652,18 @@
         <v>17</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>91.8</v>
+        <v>0.9799</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>200</v>
@@ -1082,21 +1690,21 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" s="6" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>91.58</v>
+        <v>0.9605</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>200</v>
@@ -1123,21 +1731,21 @@
         <v>0.0001</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>91.8</v>
+        <v>0.9623</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1302,9 +1910,9 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1394,12 +2002,222 @@
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:N18"/>
     <mergeCell ref="B19:N24"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:N62"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
